--- a/VisualCtrl/VisualCtrl/tmpFile/Premium.xlsx
+++ b/VisualCtrl/VisualCtrl/tmpFile/Premium.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Agencia</x:t>
   </x:si>
@@ -387,6 +387,12 @@
     <x:t>Premium</x:t>
   </x:si>
   <x:si>
+    <x:t>SHOPS-JUN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROP</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">COPACABANITO GRAN SUR                                       </x:t>
   </x:si>
   <x:si>
@@ -430,87 +436,6 @@
   </x:si>
   <x:si>
     <x:t>LOS CABOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">F CAUCEL II                                                 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>C 62 LOC 1 X 37 Y 39A NO 655</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIUDAD CAUCEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YUCATAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MERIDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">VETERINARIA ANGEL VETS                                      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>AV AZTECAS 323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AJUSCO</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">FREELENIAL ONE                                              </x:t>
-  </x:si>
-  <x:si>
-    <x:t>LONDRES 87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEL CARMEN</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TACOS CHARLY                                                </x:t>
-  </x:si>
-  <x:si>
-    <x:t>CALLE BAHIA DE BALLENAS 64  LOCAL 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VERONICA ANZURES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIGUEL HIDALGO</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TI PERISUR                                                  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>PERIFERICO SUR 4690 L 508 FAST F OOD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMPLIACION JARDINES DEL PEDREGAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TI PAPALOTE                                                 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>AV CONSTITUYENTES NO 268 2 DA SEC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DANIEL GARZA</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TI ANTARA                                                   </x:t>
-  </x:si>
-  <x:si>
-    <x:t>AV EJERCITO NACIONAL 843B L F119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRANADA</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AH PERISUR                                                  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>PERIFERICO SUR 4690 INTERI OR 0 L  511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JARDINES DEL PEDREGAL DE SAN</x:t>
   </x:si>
   <x:si>
     <x:t>Visita exitosa</x:t>
@@ -1533,30 +1458,34 @@
       <x:c r="A2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
+      <x:c r="B2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="D2" s="0" t="s"/>
       <x:c r="E2" s="0" t="s"/>
       <x:c r="F2" s="0" t="n">
         <x:v>9359999225</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>4600</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M2" s="0" t="n">
         <x:v>71602729</x:v>
@@ -1569,30 +1498,34 @@
       <x:c r="A3" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="C3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="0" t="n">
         <x:v>9359995868</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>62300</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
         <x:v>7772055100</x:v>
@@ -1605,30 +1538,34 @@
       <x:c r="A4" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="D4" s="0" t="s"/>
       <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="0" t="n">
         <x:v>9359995744</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>23450</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M4" s="0" t="n">
         <x:v>6677747268</x:v>
@@ -1636,390 +1573,6 @@
       <x:c r="N4" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:34">
-      <x:c r="A5" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="C5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
-      <x:c r="F5" s="0" t="n">
-        <x:v>9359995041</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="n">
-        <x:v>97314</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="L5" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="M5" s="0" t="n">
-        <x:v>9999208045</x:v>
-      </x:c>
-      <x:c r="N5" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O5" s="0" t="s"/>
-      <x:c r="P5" s="0" t="s"/>
-      <x:c r="Q5" s="0" t="s"/>
-      <x:c r="R5" s="0" t="s"/>
-      <x:c r="S5" s="0" t="s"/>
-      <x:c r="T5" s="0" t="s"/>
-      <x:c r="U5" s="0" t="s"/>
-      <x:c r="V5" s="0" t="s"/>
-      <x:c r="W5" s="0" t="s"/>
-      <x:c r="X5" s="0" t="s"/>
-      <x:c r="Y5" s="0" t="s"/>
-      <x:c r="Z5" s="0" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:34">
-      <x:c r="A6" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="n">
-        <x:v>9359982957</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="n">
-        <x:v>4300</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="L6" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="M6" s="0" t="n">
-        <x:v>56197149</x:v>
-      </x:c>
-      <x:c r="N6" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O6" s="0" t="s"/>
-      <x:c r="P6" s="0" t="s"/>
-      <x:c r="Q6" s="0" t="s"/>
-      <x:c r="R6" s="0" t="s"/>
-      <x:c r="S6" s="0" t="s"/>
-      <x:c r="T6" s="0" t="s"/>
-      <x:c r="U6" s="0" t="s"/>
-      <x:c r="V6" s="0" t="s"/>
-      <x:c r="W6" s="0" t="s"/>
-      <x:c r="X6" s="0" t="s"/>
-      <x:c r="Y6" s="0" t="s"/>
-      <x:c r="Z6" s="0" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:34">
-      <x:c r="A7" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
-      <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
-      <x:c r="F7" s="0" t="n">
-        <x:v>9359982833</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="n">
-        <x:v>4100</x:v>
-      </x:c>
-      <x:c r="K7" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="L7" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="M7" s="0" t="n">
-        <x:v>50863483</x:v>
-      </x:c>
-      <x:c r="N7" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O7" s="0" t="s"/>
-      <x:c r="P7" s="0" t="s"/>
-      <x:c r="Q7" s="0" t="s"/>
-      <x:c r="R7" s="0" t="s"/>
-      <x:c r="S7" s="0" t="s"/>
-      <x:c r="T7" s="0" t="s"/>
-      <x:c r="U7" s="0" t="s"/>
-      <x:c r="V7" s="0" t="s"/>
-      <x:c r="W7" s="0" t="s"/>
-      <x:c r="X7" s="0" t="s"/>
-      <x:c r="Y7" s="0" t="s"/>
-      <x:c r="Z7" s="0" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:34">
-      <x:c r="A8" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s"/>
-      <x:c r="F8" s="0" t="n">
-        <x:v>9359981900</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="J8" s="0" t="n">
-        <x:v>11300</x:v>
-      </x:c>
-      <x:c r="K8" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="L8" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="M8" s="0" t="n">
-        <x:v>5526241921</x:v>
-      </x:c>
-      <x:c r="N8" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O8" s="0" t="s"/>
-      <x:c r="P8" s="0" t="s"/>
-      <x:c r="Q8" s="0" t="s"/>
-      <x:c r="R8" s="0" t="s"/>
-      <x:c r="S8" s="0" t="s"/>
-      <x:c r="T8" s="0" t="s"/>
-      <x:c r="U8" s="0" t="s"/>
-      <x:c r="V8" s="0" t="s"/>
-      <x:c r="W8" s="0" t="s"/>
-      <x:c r="X8" s="0" t="s"/>
-      <x:c r="Y8" s="0" t="s"/>
-      <x:c r="Z8" s="0" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:34">
-      <x:c r="A9" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
-      <x:c r="F9" s="0" t="n">
-        <x:v>9359977452</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="J9" s="0" t="n">
-        <x:v>4500</x:v>
-      </x:c>
-      <x:c r="K9" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="L9" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="M9" s="0" t="n">
-        <x:v>55112002</x:v>
-      </x:c>
-      <x:c r="N9" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O9" s="0" t="s"/>
-      <x:c r="P9" s="0" t="s"/>
-      <x:c r="Q9" s="0" t="s"/>
-      <x:c r="R9" s="0" t="s"/>
-      <x:c r="S9" s="0" t="s"/>
-      <x:c r="T9" s="0" t="s"/>
-      <x:c r="U9" s="0" t="s"/>
-      <x:c r="V9" s="0" t="s"/>
-      <x:c r="W9" s="0" t="s"/>
-      <x:c r="X9" s="0" t="s"/>
-      <x:c r="Y9" s="0" t="s"/>
-      <x:c r="Z9" s="0" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:34">
-      <x:c r="A10" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="s"/>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s"/>
-      <x:c r="F10" s="0" t="n">
-        <x:v>9359977445</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="J10" s="0" t="n">
-        <x:v>11830</x:v>
-      </x:c>
-      <x:c r="K10" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="L10" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="M10" s="0" t="n">
-        <x:v>55112002</x:v>
-      </x:c>
-      <x:c r="N10" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O10" s="0" t="s"/>
-      <x:c r="P10" s="0" t="s"/>
-      <x:c r="Q10" s="0" t="s"/>
-      <x:c r="R10" s="0" t="s"/>
-      <x:c r="S10" s="0" t="s"/>
-      <x:c r="T10" s="0" t="s"/>
-      <x:c r="U10" s="0" t="s"/>
-      <x:c r="V10" s="0" t="s"/>
-      <x:c r="W10" s="0" t="s"/>
-      <x:c r="X10" s="0" t="s"/>
-      <x:c r="Y10" s="0" t="s"/>
-      <x:c r="Z10" s="0" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:34">
-      <x:c r="A11" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
-      <x:c r="F11" s="0" t="n">
-        <x:v>9359977429</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="J11" s="0" t="n">
-        <x:v>11520</x:v>
-      </x:c>
-      <x:c r="K11" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="L11" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="M11" s="0" t="n">
-        <x:v>55112002</x:v>
-      </x:c>
-      <x:c r="N11" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O11" s="0" t="s"/>
-      <x:c r="P11" s="0" t="s"/>
-      <x:c r="Q11" s="0" t="s"/>
-      <x:c r="R11" s="0" t="s"/>
-      <x:c r="S11" s="0" t="s"/>
-      <x:c r="T11" s="0" t="s"/>
-      <x:c r="U11" s="0" t="s"/>
-      <x:c r="V11" s="0" t="s"/>
-      <x:c r="W11" s="0" t="s"/>
-      <x:c r="X11" s="0" t="s"/>
-      <x:c r="Y11" s="0" t="s"/>
-      <x:c r="Z11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:34">
-      <x:c r="A12" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s"/>
-      <x:c r="F12" s="0" t="n">
-        <x:v>9359977395</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="J12" s="0" t="n">
-        <x:v>4500</x:v>
-      </x:c>
-      <x:c r="K12" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="L12" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="M12" s="0" t="n">
-        <x:v>55112002</x:v>
-      </x:c>
-      <x:c r="N12" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O12" s="0" t="s"/>
-      <x:c r="P12" s="0" t="s"/>
-      <x:c r="Q12" s="0" t="s"/>
-      <x:c r="R12" s="0" t="s"/>
-      <x:c r="S12" s="0" t="s"/>
-      <x:c r="T12" s="0" t="s"/>
-      <x:c r="U12" s="0" t="s"/>
-      <x:c r="V12" s="0" t="s"/>
-      <x:c r="W12" s="0" t="s"/>
-      <x:c r="X12" s="0" t="s"/>
-      <x:c r="Y12" s="0" t="s"/>
-      <x:c r="Z12" s="0" t="s"/>
     </x:row>
     <x:row r="91888" spans="1:34" s="0" customFormat="1">
       <x:c r="A91888" s="0" t="s"/>
@@ -2097,91 +1650,91 @@
     <x:row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A1" s="5" t="s"/>
       <x:c r="B1" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C1" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A2" s="5" t="s"/>
       <x:c r="B2" s="5" t="s">
-        <x:v>79</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D2" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E2" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F2" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G2" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A3" s="5" t="s"/>
       <x:c r="B3" s="5" t="s">
-        <x:v>84</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C3" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D3" s="5" t="s">
-        <x:v>86</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E3" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F3" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G3" s="5" t="s">
-        <x:v>88</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A4" s="5" t="s"/>
       <x:c r="B4" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D4" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F4" s="5" t="s"/>
       <x:c r="G4" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A5" s="5" t="s"/>
       <x:c r="B5" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s"/>
       <x:c r="D5" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F5" s="5" t="s"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2189,11 +1742,11 @@
       <x:c r="B6" s="5" t="s"/>
       <x:c r="C6" s="5" t="s"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F6" s="5" t="s"/>
       <x:c r="G6" s="5" t="s">
-        <x:v>97</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2201,80 +1754,80 @@
     </x:row>
     <x:row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="B9" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F9" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H9" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="B10" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D10" s="5" t="s">
-        <x:v>104</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F10" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H10" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="B11" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H11" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="B12" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D12" s="5" t="s">
-        <x:v>110</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="B13" s="5" t="s">
-        <x:v>111</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>112</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="B14" s="5" t="s">
-        <x:v>113</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D14" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="B15" s="5" t="s"/>
       <x:c r="D15" s="5" t="s">
-        <x:v>115</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8" x14ac:dyDescent="0.3">
